--- a/КМ1_1.xlsx
+++ b/КМ1_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruslanpepa/Documents/МЭИ/2023:2024/Финансовая математика/MathFinance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD77829-6D02-EF47-A647-A110A1E5341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAAD6F97-320E-B346-92CF-07AF72DF9D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{0A7BBE08-EF59-0C4B-80E5-8BFA86904E4C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Проценты</t>
   </si>
@@ -61,7 +61,25 @@
     <t>№3Вклад в размере 200 тыс.руб. выдан на три года. На эту сумму будут начисляться простые проценты. Процентная ставка в первый год составит 20%, а каждое следующее полугодие будет уменьшаться на 1%. Определите множитель наращения.</t>
   </si>
   <si>
-    <t>В первом квартела в депозитных операциях применялась  простая ставка 10%, во втором -- 9,5%, в третьем -- 11%, в четвертом -- 12%. Какая постоянная простая ставка обеспечила бы такую же доходность.</t>
+    <t>№4 В первом квартела в депозитных операциях применялась  простая ставка 10%, во втором -- 9,5%, в третьем -- 11%, в четвертом -- 12%. Какая постоянная простая ставка обеспечила бы такую же доходность.</t>
+  </si>
+  <si>
+    <t>№5Определите годовую номинульную учетную ставку, котрая используется при выдаче ссуды с начислением сложных процентов ежеквартально, если было выдано 90 тыс.руб., а через полтора года получено 100 тыс.руб.</t>
+  </si>
+  <si>
+    <t>№6 найдите годовую номаниальную стаавку, при котрой 50 тыс. руб. в конце 2005 г. Эквивалентны 500 тыс.руб. в конце 2015 г. При начислении процентов ежемесячно.</t>
+  </si>
+  <si>
+    <t>№7 Настоящая стоимость аннуитета, по которому выплачивается поквартально по 25 тыс.руб., равна 250 тыс.руб. Проценты начисляются ежемесячно по годовой номинальной ставке 4%. Найдите количесто полных платежей.</t>
+  </si>
+  <si>
+    <t>№8 Какую сумму необходимо поместить в банк под годовую номинальную ставку 8% годовых, чтобы в течение шести лет иметь возможност ь в конце каждого года снимать по 200 тыс.руб., исчерпав счет полностью, если проценты начисляются ежемесячно.</t>
+  </si>
+  <si>
+    <t>№9 Получен кредит в размере 1,5 млн.руб. на два года под 12% годовых. Погашение основного долга и выплаты проценто по нему проедполгаются ежеквартальными равными поагсительными взносами в конце каждого квартала. Определите размер неоплаченного остатка основаного долга на начало второго года погашения.</t>
+  </si>
+  <si>
+    <t>№10 Долг в сумме 10 млн руб. будет погашен двенадцатью равными ежемесячными платежами. Найдите размер платежей при годовой ставке в 8%. Составте расписание погашения долга для первых трех месяцев.</t>
   </si>
 </sst>
 </file>
@@ -74,7 +92,7 @@
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,12 +153,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color rgb="FF2C2D30"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,11 +176,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -206,9 +215,6 @@
     <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,90 +531,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BC3995-CCC9-C04E-84F6-0024C052F49A}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="42" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="97.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="62" style="11" customWidth="1"/>
-    <col min="3" max="3" width="91.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="10" customWidth="1"/>
+    <col min="1" max="1" width="97.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62" style="10" customWidth="1"/>
+    <col min="3" max="3" width="91.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="164" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="210" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="197" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="208" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="11" spans="1:5" ht="242" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="229" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="216" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="289" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="216" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="E12" s="12"/>
+    </row>
     <row r="13" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="E13" s="13"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="17"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:5" ht="145" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" spans="1:1" ht="370" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A25" s="7"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:5" ht="370" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
